--- a/src/test/resources/Documents/33241/Base/JobPlanning.xlsx
+++ b/src/test/resources/Documents/33241/Base/JobPlanning.xlsx
@@ -95,15 +95,6 @@
     <t>1) 591345  2p</t>
   </si>
   <si>
-    <t>Sheet-fed Press F 4x0</t>
-  </si>
-  <si>
-    <t>203-Heid 105 4-Color</t>
-  </si>
-  <si>
-    <t>10,196</t>
-  </si>
-  <si>
     <t>Die Cutting</t>
   </si>
   <si>
@@ -131,6 +122,15 @@
 405-54" Polar 137EMC Cutter
 402-45" Polar 115EMC Cutter
 403-54" Polar 137ED Cutter</t>
+  </si>
+  <si>
+    <t>Sheet-fed Press F 4x0</t>
+  </si>
+  <si>
+    <t>203-Heid 105 4-Color</t>
+  </si>
+  <si>
+    <t>10,196</t>
   </si>
   <si>
     <t>1) 591345 - Prepress</t>
@@ -1797,13 +1797,13 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="29">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="30">
         <v>18</v>
       </c>
       <c r="D4" t="s" s="31">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="32">
         <v>18</v>
@@ -1827,10 +1827,10 @@
         <v>18</v>
       </c>
       <c r="L4" t="s" s="39">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s" s="40">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -1838,13 +1838,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="s" s="42">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s" s="43">
         <v>18</v>
       </c>
       <c r="D5" t="s" s="44">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s" s="45">
         <v>18</v>
@@ -1868,10 +1868,10 @@
         <v>18</v>
       </c>
       <c r="L5" t="s" s="52">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s" s="53">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -1912,7 +1912,7 @@
         <v>28</v>
       </c>
       <c r="M6" t="s" s="66">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1920,13 +1920,13 @@
         <v>26</v>
       </c>
       <c r="B7" t="s" s="68">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="69">
         <v>18</v>
       </c>
       <c r="D7" t="s" s="70">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="71">
         <v>18</v>
@@ -1935,7 +1935,7 @@
         <v>18</v>
       </c>
       <c r="G7" t="s" s="73">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s" s="74">
         <v>18</v>
@@ -1950,10 +1950,10 @@
         <v>18</v>
       </c>
       <c r="L7" t="s" s="78">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s" s="79">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1961,13 +1961,13 @@
         <v>26</v>
       </c>
       <c r="B8" t="s" s="81">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="82">
         <v>18</v>
       </c>
       <c r="D8" t="s" s="83">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s" s="84">
         <v>18</v>
@@ -1976,7 +1976,7 @@
         <v>18</v>
       </c>
       <c r="G8" t="s" s="86">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s" s="87">
         <v>18</v>
@@ -1991,10 +1991,10 @@
         <v>18</v>
       </c>
       <c r="L8" t="s" s="91">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s" s="92">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -2125,13 +2125,13 @@
         <v>48</v>
       </c>
       <c r="B12" t="s" s="133">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s" s="134">
         <v>18</v>
       </c>
       <c r="D12" t="s" s="135">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s" s="136">
         <v>18</v>
@@ -2155,10 +2155,10 @@
         <v>18</v>
       </c>
       <c r="L12" t="s" s="143">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s" s="144">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -2166,7 +2166,7 @@
         <v>48</v>
       </c>
       <c r="B13" t="s" s="146">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s" s="147">
         <v>18</v>
@@ -2207,13 +2207,13 @@
         <v>48</v>
       </c>
       <c r="B14" t="s" s="159">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s" s="160">
         <v>18</v>
       </c>
       <c r="D14" t="s" s="161">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s" s="162">
         <v>18</v>
@@ -2237,10 +2237,10 @@
         <v>18</v>
       </c>
       <c r="L14" t="s" s="169">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s" s="170">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2289,13 +2289,13 @@
         <v>54</v>
       </c>
       <c r="B16" t="s" s="185">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s" s="186">
         <v>18</v>
       </c>
       <c r="D16" t="s" s="187">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s" s="188">
         <v>18</v>
@@ -2304,7 +2304,7 @@
         <v>18</v>
       </c>
       <c r="G16" t="s" s="190">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s" s="191">
         <v>18</v>
@@ -2319,10 +2319,10 @@
         <v>18</v>
       </c>
       <c r="L16" t="s" s="195">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M16" t="s" s="196">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -2330,13 +2330,13 @@
         <v>54</v>
       </c>
       <c r="B17" t="s" s="198">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s" s="199">
         <v>18</v>
       </c>
       <c r="D17" t="s" s="200">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s" s="201">
         <v>18</v>
@@ -2345,7 +2345,7 @@
         <v>18</v>
       </c>
       <c r="G17" t="s" s="203">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s" s="204">
         <v>18</v>
@@ -2360,10 +2360,10 @@
         <v>18</v>
       </c>
       <c r="L17" t="s" s="208">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M17" t="s" s="209">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
